--- a/target/classes/com/test/testdata/Front_Accounting_XLData.xlsx
+++ b/target/classes/com/test/testdata/Front_Accounting_XLData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11445" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -37,10 +37,22 @@
     <t>pass</t>
   </si>
   <si>
-    <t xml:space="preserve">          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
+    <t>vddvdvd</t>
+  </si>
+  <si>
+    <t>dsvdv</t>
+  </si>
+  <si>
+    <t>dvzdvdv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vbnxf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
   </si>
 </sst>
 </file>
@@ -56,7 +68,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -66,6 +78,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -82,9 +100,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,7 +395,7 @@
     <col min="1" max="1" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -384,29 +403,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
